--- a/OnBoard/output/trust/catch/Catch_Trust_21.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_21.xlsx
@@ -1433,7 +1433,7 @@
         <v>0.003</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I26">
         <v>59.7092</v>
@@ -1638,7 +1638,7 @@
         <v>0.005</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I31">
         <v>59.7092</v>
@@ -2212,7 +2212,7 @@
         <v>1.35</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I45">
         <v>59.7092</v>
@@ -2294,7 +2294,7 @@
         <v>0.011</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I47">
         <v>59.7092</v>
